--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Personal\AWS Devops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2798D40-441A-465C-867F-9535607010D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E380772-9435-4C5A-B230-127AC2B35940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="775">
   <si>
     <t>Copy SSH file to other system</t>
   </si>
@@ -3587,12 +3587,6 @@
     <t>https://www.getambassador.io/learn/kubernetes-ingress/kubernetes-ingress-nodeport-load-balancers-and-ingress-controllers</t>
   </si>
   <si>
-    <t>How do you achieve multi branching piepline in Jenkins?
-Difference b/w Pipeline &amp; multi-branching peipleine.
-Common errors in Multi-branching Pipeline.
-Multi-branching pipeline vs Github Organization job.</t>
-  </si>
-  <si>
     <t>EC2, EBS, ELB, EKS, VPC, IAM, EDR, Autoscaling groups, AWS Blue-green deployment, AWS Cloud-watch</t>
   </si>
   <si>
@@ -3809,66 +3803,6 @@
         <family val="2"/>
       </rPr>
       <t>Clients send requests to the IP address provided by the Cloud provider and it will spread the requests among the pods across different nodes which are healthy.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>ClusterIP (default):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Internal clients send requests to a stable internal IP address. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>NodePort:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Clients send requests to the IP address of a node on one or more nodePort values that are specified by the Service. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LoadBalancer: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Clients send requests to the IP address of a network load balancer.</t>
     </r>
   </si>
   <si>
@@ -4416,12 +4350,150 @@
   <si>
     <t>https://docs.docker.com/build/building/multi-stage/#:~:text=With%20multi%2Dstage%20builds%2C%20you,want%20in%20the%20final%20image.</t>
   </si>
+  <si>
+    <t>Why Ansible is known as Idempotent?</t>
+  </si>
+  <si>
+    <t>“An operation is idempotent if the result of performing it once is exactly the same as the result of performing it repeatedly without any intervening actions.” This means that if you run a playbook with the same set of inputs, you should not expect it to make any changes on the system.</t>
+  </si>
+  <si>
+    <t>Hexaware Technologies</t>
+  </si>
+  <si>
+    <t>Branching strategies in Git</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project1: Feature Branching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In Feature branching, we will have a Main/Master branch, Release branch &amp; Hotfix branch.
+The master branch will have the updated code from the developer. Then, from that master branch, the developers will create a replica branch called the Feature branch &amp; develop the feature. After all the development and testing, the feature branch will be merged with the Main/Master branch for integrated testing. Once the integration testing is done, a new branch will be created namely the release branch which will be deployed into Production. This cycle will repeat for every feature. 
+Hot-fix branch will be created if the released product has some bugs reported by customers. The team will work on that branch for the fix. Once the fix is completed, it will be applied/merged to both the Master and Release branches for efficiency.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project2: Dev, SIT, UAT/Prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In the current project, the SAP Fiori developer will update the code in the Development branch. After the development, the code changes will be moved to SIT branch for integration testing. Once the functional consultants, ABAP consultants &amp; Fiori developers are happy with the results, code changes will be moved to the UAT branch for deployment &amp; testing.
+This cycle will be followed for every enhancement requested by clients.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ClusterIP (default):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Internal clients send requests to a stable internal IP address. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>NodePort:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Clients send requests to the IP address of a node on one or more nodePort values that are specified by the Service. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LoadBalancer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clients send requests to the IP address of a network load balancer.</t>
+    </r>
+  </si>
+  <si>
+    <t>A multi-branch pipeline is a concept of automatically creating Jenkins pipelines based on Git branches. It can automatically discover new branches in the source control (Github) and automatically create a pipeline for that branch. When the pipeline build starts, Jenkins uses the Jenkinsfile in that branch for build stages.</t>
+  </si>
+  <si>
+    <t>How do you achieve multi-branching piepline in Jenkins?
+Difference b/w Pipeline &amp; multi-branching pipeline.
+How does Multi-branch pipeline.
+Configure Webhook for Multi-branch pipeline.
+Common errors in Multi-branching Pipeline.
+Multiple-branch pipeline best practices.
+Jenkins pipeline vs Multibranch pipeline.
+Multi-branching pipeline vs Github Organization job.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4527,6 +4599,15 @@
       <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4697,7 +4778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4816,6 +4897,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4903,31 +4991,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5589,7 +5654,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="64" t="s">
         <v>249</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5603,7 +5668,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="1" t="s">
         <v>253</v>
       </c>
@@ -5627,7 +5692,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="70" t="s">
         <v>268</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5641,7 +5706,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="1" t="s">
         <v>265</v>
       </c>
@@ -5653,7 +5718,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="1" t="s">
         <v>266</v>
       </c>
@@ -5665,7 +5730,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="64" t="s">
         <v>269</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5674,62 +5739,62 @@
       <c r="C10" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="78" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="79"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="79"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="79"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="80"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="64" t="s">
         <v>280</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -5741,7 +5806,7 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="1" t="s">
         <v>113</v>
       </c>
@@ -5751,7 +5816,7 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="73" t="s">
         <v>283</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -5760,32 +5825,32 @@
       <c r="C18" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="75" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="82"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="6" t="s">
         <v>272</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D20" s="71"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="64" t="s">
         <v>287</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -5797,8 +5862,8 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
-      <c r="B22" s="72" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="77" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5807,15 +5872,15 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="72"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="1" t="s">
         <v>272</v>
       </c>
@@ -5825,7 +5890,7 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="64" t="s">
         <v>292</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -5834,122 +5899,122 @@
       <c r="C25" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="81" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D26" s="72"/>
+      <c r="D26" s="77"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="1" t="s">
         <v>338</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D27" s="72"/>
+      <c r="D27" s="77"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D28" s="72"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D29" s="72"/>
+      <c r="D29" s="77"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D30" s="72"/>
+      <c r="D30" s="77"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D31" s="72"/>
+      <c r="D31" s="77"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D32" s="72"/>
+      <c r="D32" s="77"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="72"/>
+      <c r="D33" s="77"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D34" s="72"/>
+      <c r="D34" s="77"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="6" t="s">
         <v>330</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D35" s="70"/>
+      <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="70"/>
+      <c r="D36" s="75"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="73" t="s">
         <v>318</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -5961,7 +6026,7 @@
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="1" t="s">
         <v>320</v>
       </c>
@@ -5971,7 +6036,7 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="1" t="s">
         <v>322</v>
       </c>
@@ -5981,7 +6046,7 @@
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="6" t="s">
         <v>324</v>
       </c>
@@ -5991,7 +6056,7 @@
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -6000,22 +6065,22 @@
       <c r="C41" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="75" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="67"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D42" s="71"/>
+      <c r="D42" s="76"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="70" t="s">
         <v>449</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -6027,7 +6092,7 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="1" t="s">
         <v>300</v>
       </c>
@@ -6039,7 +6104,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="1" t="s">
         <v>450</v>
       </c>
@@ -6049,7 +6114,7 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="67"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="1" t="s">
         <v>302</v>
       </c>
@@ -6083,22 +6148,21 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91303D4C-06CC-4BBF-90FE-4B6BD693B6E0}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.5546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.44140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" style="81" customWidth="1"/>
-    <col min="4" max="6" width="39.88671875" style="81" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="81"/>
+    <col min="1" max="1" width="71.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" customWidth="1"/>
+    <col min="4" max="6" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>381</v>
       </c>
@@ -6106,7 +6170,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>382</v>
       </c>
@@ -6117,7 +6181,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>387</v>
       </c>
@@ -6125,23 +6189,23 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>388</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>410</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>389</v>
       </c>
@@ -6149,7 +6213,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>390</v>
       </c>
@@ -6157,7 +6221,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>391</v>
       </c>
@@ -6165,7 +6229,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>392</v>
       </c>
@@ -6173,7 +6237,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>419</v>
       </c>
@@ -6181,7 +6245,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>395</v>
       </c>
@@ -6189,7 +6253,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="180" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>590</v>
       </c>
@@ -6200,47 +6264,50 @@
         <v>586</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="111" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="B13" s="82" t="s">
+        <v>774</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>773</v>
+      </c>
+      <c r="C13" s="50" t="s">
         <v>673</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="D13" s="37" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="111" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="111" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>668</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>674</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>675</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="50" t="s">
         <v>676</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>669</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>677</v>
       </c>
-      <c r="C16" s="83"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
@@ -6249,7 +6316,7 @@
       <c r="B17" s="18" t="s">
         <v>678</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="1" t="s">
         <v>679</v>
       </c>
     </row>
@@ -6260,7 +6327,7 @@
       <c r="B18" s="18" t="s">
         <v>681</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
@@ -6277,7 +6344,7 @@
         <v>386</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>424</v>
@@ -6295,7 +6362,7 @@
       <c r="A23" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="51" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6348,7 +6415,7 @@
         <v>597</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C29" s="36"/>
     </row>
@@ -6357,7 +6424,7 @@
         <v>598</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C30" s="36"/>
     </row>
@@ -6483,7 +6550,7 @@
         <v>660</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" x14ac:dyDescent="0.3">
@@ -6493,7 +6560,7 @@
       <c r="B45" s="19" t="s">
         <v>686</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="28" t="s">
         <v>687</v>
       </c>
     </row>
@@ -6502,7 +6569,7 @@
         <v>661</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.3">
@@ -6515,10 +6582,10 @@
     </row>
     <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
@@ -6528,63 +6595,63 @@
       <c r="B49" s="19" t="s">
         <v>690</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="52" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>726</v>
-      </c>
-      <c r="C50" s="86"/>
+        <v>725</v>
+      </c>
+      <c r="C50" s="52"/>
     </row>
     <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>765</v>
-      </c>
-      <c r="C51" s="85" t="s">
-        <v>768</v>
+        <v>763</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B52" s="19"/>
-      <c r="C52" s="86"/>
+      <c r="C52" s="52"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="C53" s="86"/>
+        <v>754</v>
+      </c>
+      <c r="C53" s="52"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>757</v>
-      </c>
-      <c r="C54" s="86"/>
+        <v>755</v>
+      </c>
+      <c r="C54" s="52"/>
     </row>
     <row r="55" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>767</v>
-      </c>
-      <c r="C55" s="86"/>
+        <v>765</v>
+      </c>
+      <c r="C55" s="52"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
@@ -6620,7 +6687,7 @@
         <v>402</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>741</v>
+        <v>772</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
@@ -6636,7 +6703,7 @@
         <v>404</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -6652,7 +6719,7 @@
         <v>406</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -6696,7 +6763,7 @@
         <v>655</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
@@ -6704,12 +6771,12 @@
         <v>667</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="D70" s="87" t="s">
+        <v>749</v>
+      </c>
+      <c r="D70" s="53" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6720,7 +6787,7 @@
       <c r="B71" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="C71" s="85" t="s">
+      <c r="C71" s="28" t="s">
         <v>709</v>
       </c>
     </row>
@@ -6737,9 +6804,9 @@
         <v>694</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="C73" s="85" t="s">
+        <v>750</v>
+      </c>
+      <c r="C73" s="28" t="s">
         <v>713</v>
       </c>
     </row>
@@ -6772,7 +6839,7 @@
       <c r="B77" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="C77" s="86" t="s">
+      <c r="C77" s="52" t="s">
         <v>711</v>
       </c>
     </row>
@@ -6807,7 +6874,7 @@
       <c r="B81" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="C81" s="85" t="s">
+      <c r="C81" s="28" t="s">
         <v>717</v>
       </c>
     </row>
@@ -6872,7 +6939,7 @@
         <v>588</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -6880,7 +6947,7 @@
         <v>589</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -6904,7 +6971,7 @@
         <v>595</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
@@ -6915,72 +6982,87 @@
         <v>602</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="89"/>
-      <c r="B96" s="90"/>
+    <row r="96" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A96" s="83" t="s">
+        <v>767</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="78" t="s">
+      <c r="A98" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="B98" s="19"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B98" s="19"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="83" t="s">
+      <c r="B99" s="19" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B100" s="19" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="34" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="83" t="s">
-        <v>729</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="91" t="s">
+      <c r="B101" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="B101" s="33" t="s">
-        <v>733</v>
-      </c>
     </row>
     <row r="102" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="88" t="s">
-        <v>743</v>
-      </c>
-      <c r="B102" s="80" t="s">
+      <c r="A102" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="34" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="91" t="s">
-        <v>744</v>
-      </c>
-      <c r="B103" s="92" t="s">
-        <v>760</v>
+      <c r="B103" s="35" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="88" t="s">
-        <v>758</v>
-      </c>
-      <c r="B104" s="79" t="s">
+      <c r="A104" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C104" s="28" t="s">
         <v>759</v>
       </c>
-      <c r="C104" s="28" t="s">
-        <v>761</v>
+    </row>
+    <row r="105" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="34" t="s">
+        <v>770</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{33EE5E25-20E1-4F45-B9AC-6DF03D2A683A}"/>
     <hyperlink ref="B23" r:id="rId2" xr:uid="{259EEAC1-0FFB-4513-9333-16E961318BBE}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{DBC8026C-06DD-4FD5-866E-81E7B86EF214}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{DBC8026C-06DD-4FD5-866E-81E7B86EF214}"/>
     <hyperlink ref="B15" r:id="rId4" xr:uid="{D5FCC31A-89FA-44E4-BFCD-335C109263D8}"/>
     <hyperlink ref="C45" r:id="rId5" xr:uid="{800DC5E4-5E3B-43E6-BB8A-B7977900D33A}"/>
     <hyperlink ref="C49" r:id="rId6" xr:uid="{5A5F45EE-6FF2-412B-9487-C58F0FB7E499}"/>
@@ -6989,9 +7071,10 @@
     <hyperlink ref="C73" r:id="rId9" location=":~:text=NodePort%20Services%20are%20often%20used,your%20application%20to%20external%20clients." xr:uid="{2C0495B4-89A1-4498-A137-6120838439C6}"/>
     <hyperlink ref="C81" r:id="rId10" xr:uid="{FE2D400A-3A60-4401-93F5-6E56855F9A18}"/>
     <hyperlink ref="C104" r:id="rId11" xr:uid="{67EC7FDC-8439-4295-9212-D37FDEC6B4D4}"/>
+    <hyperlink ref="C51" r:id="rId12" location=":~:text=With%20multi%2Dstage%20builds%2C%20you,want%20in%20the%20final%20image." xr:uid="{E0385F0E-4548-4B51-BB81-8EA2B616339B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -7138,7 +7221,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>514</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -7149,7 +7232,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="24" t="s">
         <v>517</v>
       </c>
@@ -7158,7 +7241,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="24" t="s">
         <v>519</v>
       </c>
@@ -7167,7 +7250,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="24" t="s">
         <v>521</v>
       </c>
@@ -7176,7 +7259,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="24" t="s">
         <v>523</v>
       </c>
@@ -7185,7 +7268,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="142.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="24" t="s">
         <v>570</v>
       </c>
@@ -7194,7 +7277,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="24" t="s">
         <v>526</v>
       </c>
@@ -7203,7 +7286,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="24" t="s">
         <v>528</v>
       </c>
@@ -7212,7 +7295,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="114" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="24" t="s">
         <v>530</v>
       </c>
@@ -7221,7 +7304,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="19" t="s">
         <v>483</v>
       </c>
@@ -7230,7 +7313,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="24" t="s">
         <v>532</v>
       </c>
@@ -7240,7 +7323,7 @@
       <c r="D11"/>
     </row>
     <row r="12" spans="1:4" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="24" t="s">
         <v>534</v>
       </c>
@@ -7249,7 +7332,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="24" t="s">
         <v>536</v>
       </c>
@@ -7258,7 +7341,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="24" t="s">
         <v>538</v>
       </c>
@@ -7267,7 +7350,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="24" t="s">
         <v>539</v>
       </c>
@@ -7276,14 +7359,14 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="24" t="s">
         <v>541</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="24" t="s">
         <v>542</v>
       </c>
@@ -7292,7 +7375,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="24" t="s">
         <v>544</v>
       </c>
@@ -7301,7 +7384,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="24" t="s">
         <v>546</v>
       </c>
@@ -7310,7 +7393,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="58" t="s">
         <v>549</v>
       </c>
       <c r="B20" s="24" t="s">
@@ -7319,7 +7402,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="24" t="s">
         <v>550</v>
       </c>
@@ -7328,14 +7411,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="223.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="24" t="s">
         <v>552</v>
       </c>
       <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="61" t="s">
         <v>561</v>
       </c>
       <c r="B23" s="24" t="s">
@@ -7346,7 +7429,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="24" t="s">
         <v>564</v>
       </c>
@@ -7355,7 +7438,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="24" t="s">
         <v>566</v>
       </c>
@@ -7364,7 +7447,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="1" t="s">
         <v>568</v>
       </c>
@@ -7373,7 +7456,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="55" t="s">
         <v>454</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -7384,7 +7467,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="18" t="s">
         <v>385</v>
       </c>
@@ -7393,7 +7476,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="18" t="s">
         <v>446</v>
       </c>
@@ -7405,7 +7488,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="57" t="s">
         <v>455</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -7416,7 +7499,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="18" t="s">
         <v>426</v>
       </c>
@@ -7425,7 +7508,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="57" t="s">
         <v>456</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -7436,7 +7519,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="19" t="s">
         <v>428</v>
       </c>
@@ -7445,7 +7528,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="57" t="s">
         <v>459</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -7459,7 +7542,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="19" t="s">
         <v>461</v>
       </c>
@@ -7471,7 +7554,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="57" t="s">
         <v>502</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -7483,7 +7566,7 @@
       <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="19" t="s">
         <v>505</v>
       </c>
@@ -7493,7 +7576,7 @@
       <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="19" t="s">
         <v>506</v>
       </c>
@@ -7503,7 +7586,7 @@
       <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="19" t="s">
         <v>509</v>
       </c>
@@ -7513,7 +7596,7 @@
       <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="19" t="s">
         <v>511</v>
       </c>
@@ -7523,7 +7606,7 @@
       <c r="D40" s="20"/>
     </row>
     <row r="41" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="19" t="s">
         <v>513</v>
       </c>
@@ -7533,7 +7616,7 @@
       <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="57" t="s">
         <v>372</v>
       </c>
       <c r="B42" s="18" t="s">
@@ -7544,7 +7627,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="18" t="s">
         <v>378</v>
       </c>
@@ -7553,7 +7636,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="18" t="s">
         <v>441</v>
       </c>
@@ -7562,7 +7645,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="19" t="s">
         <v>553</v>
       </c>
@@ -7571,7 +7654,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="19" t="s">
         <v>555</v>
       </c>
@@ -7580,7 +7663,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="85.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="19" t="s">
         <v>557</v>
       </c>
@@ -7589,7 +7672,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="19" t="s">
         <v>559</v>
       </c>
@@ -7598,7 +7681,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="58" t="s">
         <v>464</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -7612,7 +7695,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="18" t="s">
         <v>465</v>
       </c>
@@ -7621,7 +7704,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="18" t="s">
         <v>467</v>
       </c>
@@ -7630,7 +7713,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="18" t="s">
         <v>468</v>
       </c>
@@ -7639,7 +7722,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="58" t="s">
         <v>474</v>
       </c>
       <c r="B53" s="18" t="s">
@@ -7650,7 +7733,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="18" t="s">
         <v>477</v>
       </c>
@@ -7659,7 +7742,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="19" t="s">
         <v>478</v>
       </c>
@@ -7668,7 +7751,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="19" t="s">
         <v>480</v>
       </c>
@@ -7677,7 +7760,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="58" t="s">
         <v>482</v>
       </c>
       <c r="B57" s="19" t="s">
@@ -7688,7 +7771,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="19" t="s">
         <v>485</v>
       </c>
@@ -7697,7 +7780,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="58" t="s">
         <v>487</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -7708,7 +7791,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="19" t="s">
         <v>491</v>
       </c>
@@ -7717,7 +7800,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="19" t="s">
         <v>492</v>
       </c>
@@ -7726,7 +7809,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="19" t="s">
         <v>494</v>
       </c>
@@ -7735,7 +7818,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="19" t="s">
         <v>496</v>
       </c>
@@ -7744,7 +7827,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="93" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="19" t="s">
         <v>498</v>
       </c>
@@ -7756,7 +7839,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="54" t="s">
         <v>469</v>
       </c>
       <c r="B65" s="19" t="s">
@@ -7767,7 +7850,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="18" t="s">
         <v>394</v>
       </c>
@@ -7776,7 +7859,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="18" t="s">
         <v>401</v>
       </c>
@@ -7785,7 +7868,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="19" t="s">
         <v>429</v>
       </c>
@@ -7794,7 +7877,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="19" t="s">
         <v>431</v>
       </c>
@@ -7803,7 +7886,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="19" t="s">
         <v>433</v>
       </c>
@@ -7812,7 +7895,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="18" t="s">
         <v>370</v>
       </c>
@@ -7821,7 +7904,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="19" t="s">
         <v>435</v>
       </c>
@@ -7830,7 +7913,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="19" t="s">
         <v>437</v>
       </c>
@@ -8110,7 +8193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3CC2BF-DE67-4233-B7FC-BDA6F94D918C}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -8137,7 +8220,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8149,7 +8232,7 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
@@ -8159,7 +8242,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
@@ -8169,7 +8252,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="1" t="s">
         <v>143</v>
       </c>
@@ -8179,7 +8262,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
@@ -8189,7 +8272,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="1" t="s">
         <v>148</v>
       </c>
@@ -8199,7 +8282,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="64" t="s">
         <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -8211,7 +8294,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="1" t="s">
         <v>208</v>
       </c>
@@ -8221,7 +8304,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="1" t="s">
         <v>206</v>
       </c>
@@ -8231,7 +8314,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="1" t="s">
         <v>153</v>
       </c>
@@ -8241,7 +8324,7 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="1" t="s">
         <v>155</v>
       </c>
@@ -8251,7 +8334,7 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="1" t="s">
         <v>159</v>
       </c>
@@ -8261,7 +8344,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="1" t="s">
         <v>174</v>
       </c>
@@ -8271,7 +8354,7 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="1" t="s">
         <v>175</v>
       </c>
@@ -8281,7 +8364,7 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="1" t="s">
         <v>177</v>
       </c>
@@ -8291,7 +8374,7 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="1" t="s">
         <v>161</v>
       </c>
@@ -8301,7 +8384,7 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="1" t="s">
         <v>158</v>
       </c>
@@ -8311,7 +8394,7 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="1" t="s">
         <v>163</v>
       </c>
@@ -8321,7 +8404,7 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="1" t="s">
         <v>200</v>
       </c>
@@ -8333,11 +8416,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="64" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>166</v>
@@ -8345,9 +8428,9 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>167</v>
@@ -8355,9 +8438,9 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>168</v>
@@ -8365,7 +8448,7 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="1" t="s">
         <v>169</v>
       </c>
@@ -8375,7 +8458,7 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="1" t="s">
         <v>171</v>
       </c>
@@ -8385,7 +8468,7 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="64" t="s">
         <v>179</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -8397,7 +8480,7 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="1" t="s">
         <v>113</v>
       </c>
@@ -8407,7 +8490,7 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="1" t="s">
         <v>182</v>
       </c>
@@ -8417,7 +8500,7 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="1" t="s">
         <v>184</v>
       </c>
@@ -8427,7 +8510,7 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="1" t="s">
         <v>294</v>
       </c>
@@ -8437,7 +8520,7 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="1" t="s">
         <v>186</v>
       </c>
@@ -8449,7 +8532,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="64" t="s">
         <v>189</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -8461,7 +8544,7 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="1" t="s">
         <v>113</v>
       </c>
@@ -8471,7 +8554,7 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="1" t="s">
         <v>191</v>
       </c>
@@ -8481,7 +8564,7 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="1" t="s">
         <v>194</v>
       </c>
@@ -8491,7 +8574,7 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="64" t="s">
         <v>195</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -8503,9 +8586,9 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>198</v>
@@ -8513,9 +8596,9 @@
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>199</v>
@@ -8709,9 +8792,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="201" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="28" t="s">
         <v>577</v>
       </c>
@@ -8795,7 +8878,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8807,7 +8890,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -8817,7 +8900,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -8859,9 +8942,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="231.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:4" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -8998,7 +9081,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="70" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -9012,7 +9095,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
@@ -9024,7 +9107,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="1" t="s">
         <v>85</v>
       </c>
@@ -9034,7 +9117,7 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="70" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -9046,7 +9129,7 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
@@ -9056,7 +9139,7 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
@@ -9066,7 +9149,7 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
@@ -9076,7 +9159,7 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -9086,7 +9169,7 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -9096,7 +9179,7 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
@@ -9106,7 +9189,7 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
@@ -9116,7 +9199,7 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
@@ -9126,7 +9209,7 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="70" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -9140,7 +9223,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="1" t="s">
         <v>66</v>
       </c>
@@ -9150,7 +9233,7 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="1" t="s">
         <v>105</v>
       </c>
@@ -9160,7 +9243,7 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="1" t="s">
         <v>107</v>
       </c>
@@ -9170,7 +9253,7 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
@@ -9180,7 +9263,7 @@
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
@@ -9190,7 +9273,7 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>78</v>
@@ -9198,7 +9281,7 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="34" t="s">
         <v>683</v>
       </c>
@@ -9208,7 +9291,7 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="70" t="s">
         <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -9222,7 +9305,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="1" t="s">
         <v>95</v>
       </c>
@@ -9232,7 +9315,7 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="1" t="s">
         <v>90</v>
       </c>
@@ -9242,7 +9325,7 @@
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="67"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="1" t="s">
         <v>92</v>
       </c>
@@ -9252,7 +9335,7 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="70" t="s">
         <v>99</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -9261,42 +9344,42 @@
       <c r="C39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="67" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="66"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="68"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="66"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="68"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="67"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="64"/>
+      <c r="D42" s="69"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="73" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -9308,7 +9391,7 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="1" t="s">
         <v>109</v>
       </c>
@@ -9318,7 +9401,7 @@
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="69"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="1" t="s">
         <v>117</v>
       </c>
@@ -9330,7 +9413,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="69"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="1" t="s">
         <v>120</v>
       </c>
@@ -9342,7 +9425,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="69"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="1" t="s">
         <v>124</v>
       </c>
@@ -9352,7 +9435,7 @@
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="6" t="s">
         <v>85</v>
       </c>
@@ -9362,7 +9445,7 @@
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="64" t="s">
         <v>129</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -9374,7 +9457,7 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
+      <c r="A50" s="64"/>
       <c r="B50" s="1" t="s">
         <v>131</v>
       </c>
@@ -9384,7 +9467,7 @@
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="1" t="s">
         <v>133</v>
       </c>
@@ -9424,7 +9507,7 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="64" t="s">
         <v>126</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -9436,7 +9519,7 @@
       <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="59"/>
+      <c r="A56" s="64"/>
       <c r="B56" s="1" t="s">
         <v>49</v>
       </c>
@@ -9448,7 +9531,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
+      <c r="A57" s="64"/>
       <c r="B57" s="1" t="s">
         <v>20</v>
       </c>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Personal\AWS Devops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learnings\AWS-DevOps-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E380772-9435-4C5A-B230-127AC2B35940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9FF3C4-A267-4B2A-A5BC-5AAB9AE62760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="779">
   <si>
     <t>Copy SSH file to other system</t>
   </si>
@@ -4488,12 +4488,24 @@
 Jenkins pipeline vs Multibranch pipeline.
 Multi-branching pipeline vs Github Organization job.</t>
   </si>
+  <si>
+    <t>How do you store credentials in Jenkins securely?</t>
+  </si>
+  <si>
+    <t>Credentials can be stored securely in Jenkins using the Credentials plugin, which stores different types of credentials like - Username with a password, SSH username with the private key, AWS Credentials, Jenkins Build Token, Secret File/Text, X509 &amp; other certificates, Vault related credentials securely with proper encryption &amp; decryption as and when required.</t>
+  </si>
+  <si>
+    <t>Jenkins credentials</t>
+  </si>
+  <si>
+    <t>Manage Jenkins--&gt; Manage Credentials</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4608,6 +4620,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4778,7 +4797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4904,18 +4923,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4923,6 +4930,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4933,6 +4949,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4968,15 +4987,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4988,11 +4998,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5561,14 +5584,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="261" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>217</v>
       </c>
@@ -5579,7 +5602,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>218</v>
       </c>
@@ -5587,7 +5610,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>219</v>
       </c>
@@ -5609,15 +5632,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5631,7 +5654,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>247</v>
       </c>
@@ -5645,7 +5668,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -5653,7 +5676,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>249</v>
       </c>
@@ -5667,7 +5690,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="64"/>
       <c r="B5" s="1" t="s">
         <v>253</v>
@@ -5677,7 +5700,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>256</v>
       </c>
@@ -5691,7 +5714,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="70" t="s">
         <v>268</v>
       </c>
@@ -5705,7 +5728,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="71"/>
       <c r="B8" s="1" t="s">
         <v>265</v>
@@ -5717,7 +5740,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="72"/>
       <c r="B9" s="1" t="s">
         <v>266</v>
@@ -5729,7 +5752,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="64" t="s">
         <v>269</v>
       </c>
@@ -5739,11 +5762,11 @@
       <c r="C10" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="75" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="64"/>
       <c r="B11" s="1" t="s">
         <v>278</v>
@@ -5751,9 +5774,9 @@
       <c r="C11" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="79"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="76"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="64"/>
       <c r="B12" s="1" t="s">
         <v>113</v>
@@ -5761,9 +5784,9 @@
       <c r="C12" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="79"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="76"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="64"/>
       <c r="B13" s="1" t="s">
         <v>272</v>
@@ -5771,9 +5794,9 @@
       <c r="C13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="79"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="76"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="64"/>
       <c r="B14" s="1" t="s">
         <v>274</v>
@@ -5781,9 +5804,9 @@
       <c r="C14" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D14" s="79"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="76"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="64"/>
       <c r="B15" s="1" t="s">
         <v>276</v>
@@ -5791,9 +5814,9 @@
       <c r="C15" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="80"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="77"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="64" t="s">
         <v>280</v>
       </c>
@@ -5805,7 +5828,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="64"/>
       <c r="B17" s="1" t="s">
         <v>113</v>
@@ -5815,7 +5838,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="73" t="s">
         <v>283</v>
       </c>
@@ -5825,11 +5848,11 @@
       <c r="C18" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="80" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="74"/>
       <c r="B19" s="1" t="s">
         <v>113</v>
@@ -5837,9 +5860,9 @@
       <c r="C19" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D19" s="82"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="81"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="74"/>
       <c r="B20" s="6" t="s">
         <v>272</v>
@@ -5847,9 +5870,9 @@
       <c r="C20" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D20" s="76"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="82"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>287</v>
       </c>
@@ -5861,9 +5884,9 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="64"/>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="79" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5871,15 +5894,15 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="64"/>
-      <c r="B23" s="77"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="64"/>
       <c r="B24" s="1" t="s">
         <v>272</v>
@@ -5889,7 +5912,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="64" t="s">
         <v>292</v>
       </c>
@@ -5899,11 +5922,11 @@
       <c r="C25" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="78" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="64"/>
       <c r="B26" s="1" t="s">
         <v>294</v>
@@ -5911,9 +5934,9 @@
       <c r="C26" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D26" s="77"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="79"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="64"/>
       <c r="B27" s="1" t="s">
         <v>338</v>
@@ -5921,9 +5944,9 @@
       <c r="C27" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D27" s="77"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="79"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="64"/>
       <c r="B28" s="1" t="s">
         <v>339</v>
@@ -5931,9 +5954,9 @@
       <c r="C28" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D28" s="77"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="79"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="64"/>
       <c r="B29" s="1" t="s">
         <v>341</v>
@@ -5941,9 +5964,9 @@
       <c r="C29" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D29" s="77"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="79"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="64"/>
       <c r="B30" s="1" t="s">
         <v>295</v>
@@ -5951,9 +5974,9 @@
       <c r="C30" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D30" s="77"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="79"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="64"/>
       <c r="B31" s="1" t="s">
         <v>297</v>
@@ -5961,9 +5984,9 @@
       <c r="C31" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D31" s="77"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="79"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="64"/>
       <c r="B32" s="1" t="s">
         <v>333</v>
@@ -5971,9 +5994,9 @@
       <c r="C32" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D32" s="77"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="79"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="64"/>
       <c r="B33" s="1" t="s">
         <v>335</v>
@@ -5981,9 +6004,9 @@
       <c r="C33" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="77"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="79"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="64"/>
       <c r="B34" s="1" t="s">
         <v>300</v>
@@ -5991,9 +6014,9 @@
       <c r="C34" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D34" s="77"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="79"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="64"/>
       <c r="B35" s="6" t="s">
         <v>330</v>
@@ -6001,9 +6024,9 @@
       <c r="C35" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D35" s="75"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="80"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="64"/>
       <c r="B36" s="6" t="s">
         <v>302</v>
@@ -6011,9 +6034,9 @@
       <c r="C36" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="75"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="80"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="73" t="s">
         <v>318</v>
       </c>
@@ -6025,7 +6048,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="74"/>
       <c r="B38" s="1" t="s">
         <v>320</v>
@@ -6035,7 +6058,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="74"/>
       <c r="B39" s="1" t="s">
         <v>322</v>
@@ -6045,7 +6068,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="74"/>
       <c r="B40" s="6" t="s">
         <v>324</v>
@@ -6055,7 +6078,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
@@ -6065,11 +6088,11 @@
       <c r="C41" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="80" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="72"/>
       <c r="B42" s="1" t="s">
         <v>327</v>
@@ -6077,9 +6100,9 @@
       <c r="C42" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D42" s="76"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="82"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="70" t="s">
         <v>449</v>
       </c>
@@ -6091,7 +6114,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="71"/>
       <c r="B44" s="1" t="s">
         <v>300</v>
@@ -6103,7 +6126,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="71"/>
       <c r="B45" s="1" t="s">
         <v>450</v>
@@ -6113,7 +6136,7 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="72"/>
       <c r="B46" s="1" t="s">
         <v>302</v>
@@ -6125,6 +6148,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="A25:A36"/>
     <mergeCell ref="D25:D36"/>
@@ -6134,12 +6163,6 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6148,21 +6171,21 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91303D4C-06CC-4BBF-90FE-4B6BD693B6E0}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="71.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" customWidth="1"/>
-    <col min="4" max="6" width="39.88671875" customWidth="1"/>
+    <col min="1" max="1" width="71.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.36328125" customWidth="1"/>
+    <col min="4" max="6" width="39.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>381</v>
       </c>
@@ -6170,7 +6193,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>382</v>
       </c>
@@ -6181,7 +6204,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>387</v>
       </c>
@@ -6189,7 +6212,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>388</v>
       </c>
@@ -6197,7 +6220,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>410</v>
       </c>
@@ -6205,7 +6228,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>389</v>
       </c>
@@ -6213,7 +6236,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>390</v>
       </c>
@@ -6221,7 +6244,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>391</v>
       </c>
@@ -6229,7 +6252,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>392</v>
       </c>
@@ -6237,7 +6260,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>419</v>
       </c>
@@ -6245,7 +6268,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>395</v>
       </c>
@@ -6253,7 +6276,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="182.5" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>590</v>
       </c>
@@ -6264,11 +6287,11 @@
         <v>586</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="111" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="38" t="s">
         <v>773</v>
       </c>
       <c r="C13" s="50" t="s">
@@ -6278,7 +6301,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="111" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>668</v>
       </c>
@@ -6289,7 +6312,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>675</v>
       </c>
@@ -6300,7 +6323,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>669</v>
       </c>
@@ -6309,7 +6332,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>670</v>
       </c>
@@ -6320,7 +6343,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>671</v>
       </c>
@@ -6329,749 +6352,757 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="19" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="83"/>
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="B20" s="17"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B22" s="18" t="s">
         <v>718</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+    <row r="23" spans="1:3" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B23" s="19" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B24" s="51" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+    <row r="25" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B25" s="19" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+    <row r="26" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B26" s="19" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B27" s="18" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+    <row r="28" spans="1:3" ht="98.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B28" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C28" s="37" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+    <row r="29" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B29" s="38" t="s">
         <v>603</v>
       </c>
-      <c r="C28" s="36"/>
-    </row>
-    <row r="29" spans="1:3" ht="83.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="C29" s="36"/>
+    </row>
+    <row r="30" spans="1:3" ht="84.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B30" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="C29" s="36"/>
-    </row>
-    <row r="30" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="C30" s="36"/>
+    </row>
+    <row r="31" spans="1:3" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B31" s="19" t="s">
         <v>746</v>
       </c>
-      <c r="C30" s="36"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
+      <c r="C31" s="36"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="32" t="s">
         <v>645</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B32" s="32" t="s">
         <v>642</v>
       </c>
-      <c r="C31" s="36"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="C32" s="36"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
         <v>626</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B33" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C33" s="22" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+    <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B34" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B35" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="C34" s="36"/>
-    </row>
-    <row r="35" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="C35" s="36"/>
+    </row>
+    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B36" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="C35" s="36"/>
-    </row>
-    <row r="36" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="C36" s="36"/>
+    </row>
+    <row r="37" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B37" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="C36" s="36"/>
-    </row>
-    <row r="37" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="C37" s="36"/>
+    </row>
+    <row r="38" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B38" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="C37" s="36"/>
-    </row>
-    <row r="38" spans="1:3" ht="336" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+      <c r="C38" s="36"/>
+    </row>
+    <row r="39" spans="1:3" ht="336" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="41" t="s">
         <v>640</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B39" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C39" s="42" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+    <row r="40" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B40" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="C39" s="42"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="C40" s="42"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B43" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C43" s="22" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B44" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C44" s="43" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+    <row r="45" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B45" s="19" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+    <row r="46" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="18" t="s">
         <v>685</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B46" s="19" t="s">
         <v>686</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C46" s="28" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
+    <row r="47" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="18" t="s">
         <v>661</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B47" s="19" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
+    <row r="48" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B48" s="19" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
+    <row r="49" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B49" s="19" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
+    <row r="50" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
         <v>663</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B50" s="19" t="s">
         <v>690</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C50" s="52" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
         <v>719</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B51" s="19" t="s">
         <v>725</v>
       </c>
-      <c r="C50" s="52"/>
-    </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
+      <c r="C51" s="52"/>
+    </row>
+    <row r="52" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="18" t="s">
         <v>720</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B52" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C52" s="28" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="18" t="s">
         <v>721</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="52"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="52"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="18" t="s">
         <v>722</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B54" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="C53" s="52"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
+      <c r="C54" s="52"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B55" s="19" t="s">
         <v>755</v>
       </c>
-      <c r="C54" s="52"/>
-    </row>
-    <row r="55" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
+      <c r="C55" s="52"/>
+    </row>
+    <row r="56" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B56" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="C55" s="52"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="C56" s="52"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="B57" s="17"/>
-    </row>
-    <row r="58" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B59" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C59" s="22" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="s">
+    <row r="60" spans="1:3" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B60" s="19" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
+    <row r="61" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B61" s="19" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
+    <row r="62" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B62" s="19" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
+    <row r="63" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B63" s="19" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="18" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="18" t="s">
+    <row r="65" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B65" s="19" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="32" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="32" t="s">
         <v>578</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="29" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="29" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
+    <row r="67" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B67" s="19" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A67" s="18" t="s">
+    <row r="68" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="18" t="s">
         <v>650</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B68" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C68" s="29" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A68" s="18" t="s">
+    <row r="69" spans="1:4" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B69" s="19" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="55.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="32" t="s">
+    <row r="70" spans="1:4" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="32" t="s">
         <v>655</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B70" s="33" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
+    <row r="71" spans="1:4" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B71" s="19" t="s">
         <v>738</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C71" s="20" t="s">
         <v>749</v>
       </c>
-      <c r="D70" s="53" t="s">
+      <c r="D71" s="53" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="18" t="s">
+    <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B72" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C72" s="28" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="18" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B73" s="18" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="18" t="s">
+    <row r="74" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="18" t="s">
         <v>694</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B74" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C74" s="28" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="32" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="32" t="s">
         <v>695</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B75" s="32" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="18" t="s">
         <v>696</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B76" s="18" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="18" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="18" t="s">
         <v>698</v>
       </c>
-      <c r="B76" s="18"/>
-    </row>
-    <row r="77" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A77" s="18" t="s">
+      <c r="B77" s="18"/>
+    </row>
+    <row r="78" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="18" t="s">
         <v>699</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B78" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C78" s="52" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="18" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="18" t="s">
         <v>700</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B79" s="18" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="18" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="18" t="s">
         <v>701</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B80" s="18" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A80" s="18" t="s">
+    <row r="81" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="18" t="s">
         <v>704</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B81" s="19" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="18" t="s">
+    <row r="82" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B82" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C82" s="28" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="25"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="44" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="17"/>
+      <c r="B83" s="25"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="B83" s="19"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="18" t="s">
+      <c r="B84" s="19"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="30" t="s">
+      <c r="B85" s="19"/>
+      <c r="C85" s="30" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="18" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="B85" s="19"/>
-    </row>
-    <row r="86" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A86" s="47" t="s">
+      <c r="B86" s="19"/>
+    </row>
+    <row r="87" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="47" t="s">
         <v>630</v>
       </c>
-      <c r="B86" s="48" t="s">
+      <c r="B87" s="48" t="s">
         <v>631</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="25"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B88" s="25"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="30" t="s">
+      <c r="B89" s="19"/>
+      <c r="C89" s="30" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A89" s="18" t="s">
+    <row r="90" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B90" s="19" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A90" s="18" t="s">
+    <row r="91" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B91" s="19" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="18" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B92" s="19" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="18" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B93" s="19" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A93" s="18" t="s">
+    <row r="94" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B94" s="19" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A94" s="18" t="s">
+    <row r="95" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B95" s="19" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="18" t="s">
+    <row r="96" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B96" s="19" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A96" s="83" t="s">
+    <row r="97" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B97" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C97" s="30" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="49" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="49" t="s">
         <v>726</v>
       </c>
-      <c r="B98" s="19"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="19"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B100" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B101" s="19" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="34" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="34" t="s">
         <v>731</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B102" s="33" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B103" s="19" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="34" t="s">
+    <row r="104" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="34" t="s">
         <v>742</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B104" s="35" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C105" s="28" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="34" t="s">
+    <row r="106" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+      <c r="A106" s="34" t="s">
         <v>770</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>771</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{33EE5E25-20E1-4F45-B9AC-6DF03D2A683A}"/>
-    <hyperlink ref="B23" r:id="rId2" xr:uid="{259EEAC1-0FFB-4513-9333-16E961318BBE}"/>
+    <hyperlink ref="B24" r:id="rId2" xr:uid="{259EEAC1-0FFB-4513-9333-16E961318BBE}"/>
     <hyperlink ref="C13" r:id="rId3" xr:uid="{DBC8026C-06DD-4FD5-866E-81E7B86EF214}"/>
     <hyperlink ref="B15" r:id="rId4" xr:uid="{D5FCC31A-89FA-44E4-BFCD-335C109263D8}"/>
-    <hyperlink ref="C45" r:id="rId5" xr:uid="{800DC5E4-5E3B-43E6-BB8A-B7977900D33A}"/>
-    <hyperlink ref="C49" r:id="rId6" xr:uid="{5A5F45EE-6FF2-412B-9487-C58F0FB7E499}"/>
-    <hyperlink ref="C71" r:id="rId7" xr:uid="{888E343E-B0FD-4F26-931A-DC2CFA993149}"/>
-    <hyperlink ref="C77" r:id="rId8" xr:uid="{D90D705C-5AD5-42F4-AB45-0DE4364FE36A}"/>
-    <hyperlink ref="C73" r:id="rId9" location=":~:text=NodePort%20Services%20are%20often%20used,your%20application%20to%20external%20clients." xr:uid="{2C0495B4-89A1-4498-A137-6120838439C6}"/>
-    <hyperlink ref="C81" r:id="rId10" xr:uid="{FE2D400A-3A60-4401-93F5-6E56855F9A18}"/>
-    <hyperlink ref="C104" r:id="rId11" xr:uid="{67EC7FDC-8439-4295-9212-D37FDEC6B4D4}"/>
-    <hyperlink ref="C51" r:id="rId12" location=":~:text=With%20multi%2Dstage%20builds%2C%20you,want%20in%20the%20final%20image." xr:uid="{E0385F0E-4548-4B51-BB81-8EA2B616339B}"/>
+    <hyperlink ref="C46" r:id="rId5" xr:uid="{800DC5E4-5E3B-43E6-BB8A-B7977900D33A}"/>
+    <hyperlink ref="C50" r:id="rId6" xr:uid="{5A5F45EE-6FF2-412B-9487-C58F0FB7E499}"/>
+    <hyperlink ref="C72" r:id="rId7" xr:uid="{888E343E-B0FD-4F26-931A-DC2CFA993149}"/>
+    <hyperlink ref="C78" r:id="rId8" xr:uid="{D90D705C-5AD5-42F4-AB45-0DE4364FE36A}"/>
+    <hyperlink ref="C74" r:id="rId9" location=":~:text=NodePort%20Services%20are%20often%20used,your%20application%20to%20external%20clients." xr:uid="{2C0495B4-89A1-4498-A137-6120838439C6}"/>
+    <hyperlink ref="C82" r:id="rId10" xr:uid="{FE2D400A-3A60-4401-93F5-6E56855F9A18}"/>
+    <hyperlink ref="C105" r:id="rId11" xr:uid="{67EC7FDC-8439-4295-9212-D37FDEC6B4D4}"/>
+    <hyperlink ref="C52" r:id="rId12" location=":~:text=With%20multi%2Dstage%20builds%2C%20you,want%20in%20the%20final%20image." xr:uid="{E0385F0E-4548-4B51-BB81-8EA2B616339B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -7086,9 +7117,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="66.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="66.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>307</v>
       </c>
@@ -7096,7 +7127,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>309</v>
       </c>
@@ -7104,13 +7135,13 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>312</v>
       </c>
@@ -7118,7 +7149,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>314</v>
       </c>
@@ -7126,7 +7157,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>363</v>
       </c>
@@ -7134,7 +7165,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>366</v>
       </c>
@@ -7142,7 +7173,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>375</v>
       </c>
@@ -7150,7 +7181,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>377</v>
       </c>
@@ -7171,18 +7202,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -7190,7 +7221,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>352</v>
       </c>
@@ -7211,17 +7242,17 @@
       <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="101.77734375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="86.33203125" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="55.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.36328125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="101.81640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="86.36328125" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
         <v>514</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -7231,8 +7262,8 @@
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
       <c r="B2" s="24" t="s">
         <v>517</v>
       </c>
@@ -7240,8 +7271,8 @@
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+    <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A3" s="55"/>
       <c r="B3" s="24" t="s">
         <v>519</v>
       </c>
@@ -7249,8 +7280,8 @@
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A4" s="55"/>
       <c r="B4" s="24" t="s">
         <v>521</v>
       </c>
@@ -7258,8 +7289,8 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+    <row r="5" spans="1:4" ht="112" x14ac:dyDescent="0.3">
+      <c r="A5" s="55"/>
       <c r="B5" s="24" t="s">
         <v>523</v>
       </c>
@@ -7267,8 +7298,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="142.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+    <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.35">
+      <c r="A6" s="55"/>
       <c r="B6" s="24" t="s">
         <v>570</v>
       </c>
@@ -7276,8 +7307,8 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+    <row r="7" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
       <c r="B7" s="24" t="s">
         <v>526</v>
       </c>
@@ -7285,8 +7316,8 @@
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+    <row r="8" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A8" s="55"/>
       <c r="B8" s="24" t="s">
         <v>528</v>
       </c>
@@ -7294,8 +7325,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="114" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+    <row r="9" spans="1:4" ht="115" x14ac:dyDescent="0.35">
+      <c r="A9" s="55"/>
       <c r="B9" s="24" t="s">
         <v>530</v>
       </c>
@@ -7303,8 +7334,8 @@
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+    <row r="10" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+      <c r="A10" s="55"/>
       <c r="B10" s="19" t="s">
         <v>483</v>
       </c>
@@ -7312,8 +7343,8 @@
         <v>571</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:4" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="55"/>
       <c r="B11" s="24" t="s">
         <v>532</v>
       </c>
@@ -7322,8 +7353,8 @@
       </c>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:4" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+    <row r="12" spans="1:4" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
       <c r="B12" s="24" t="s">
         <v>534</v>
       </c>
@@ -7331,8 +7362,8 @@
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+    <row r="13" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
       <c r="B13" s="24" t="s">
         <v>536</v>
       </c>
@@ -7340,8 +7371,8 @@
         <v>537</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+    <row r="14" spans="1:4" ht="112" x14ac:dyDescent="0.3">
+      <c r="A14" s="55"/>
       <c r="B14" s="24" t="s">
         <v>538</v>
       </c>
@@ -7349,8 +7380,8 @@
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A15" s="55"/>
       <c r="B15" s="24" t="s">
         <v>539</v>
       </c>
@@ -7358,15 +7389,15 @@
         <v>540</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
+    <row r="16" spans="1:4" ht="130.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="55"/>
       <c r="B16" s="24" t="s">
         <v>541</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+    <row r="17" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+      <c r="A17" s="55"/>
       <c r="B17" s="24" t="s">
         <v>542</v>
       </c>
@@ -7374,8 +7405,8 @@
         <v>543</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="55"/>
       <c r="B18" s="24" t="s">
         <v>544</v>
       </c>
@@ -7383,8 +7414,8 @@
         <v>545</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+    <row r="19" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A19" s="56"/>
       <c r="B19" s="24" t="s">
         <v>546</v>
       </c>
@@ -7392,8 +7423,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:4" ht="91.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
         <v>549</v>
       </c>
       <c r="B20" s="24" t="s">
@@ -7401,8 +7432,8 @@
       </c>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+    <row r="21" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A21" s="55"/>
       <c r="B21" s="24" t="s">
         <v>550</v>
       </c>
@@ -7410,15 +7441,15 @@
         <v>551</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="223.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
+    <row r="22" spans="1:4" ht="223.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
       <c r="B22" s="24" t="s">
         <v>552</v>
       </c>
       <c r="C22" s="24"/>
     </row>
-    <row r="23" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
         <v>561</v>
       </c>
       <c r="B23" s="24" t="s">
@@ -7428,8 +7459,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
+    <row r="24" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="61"/>
       <c r="B24" s="24" t="s">
         <v>564</v>
       </c>
@@ -7437,8 +7468,8 @@
         <v>565</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+    <row r="25" spans="1:4" ht="112" x14ac:dyDescent="0.3">
+      <c r="A25" s="61"/>
       <c r="B25" s="24" t="s">
         <v>566</v>
       </c>
@@ -7446,8 +7477,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
+    <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="62"/>
       <c r="B26" s="1" t="s">
         <v>568</v>
       </c>
@@ -7455,8 +7486,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+    <row r="27" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A27" s="58" t="s">
         <v>454</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -7466,8 +7497,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
       <c r="B28" s="18" t="s">
         <v>385</v>
       </c>
@@ -7475,8 +7506,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+    <row r="29" spans="1:4" ht="126" x14ac:dyDescent="0.3">
+      <c r="A29" s="59"/>
       <c r="B29" s="18" t="s">
         <v>446</v>
       </c>
@@ -7487,7 +7518,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
         <v>455</v>
       </c>
@@ -7498,8 +7529,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+    <row r="31" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A31" s="59"/>
       <c r="B31" s="18" t="s">
         <v>426</v>
       </c>
@@ -7507,7 +7538,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A32" s="57" t="s">
         <v>456</v>
       </c>
@@ -7518,8 +7549,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+    <row r="33" spans="1:4" ht="112" x14ac:dyDescent="0.3">
+      <c r="A33" s="59"/>
       <c r="B33" s="19" t="s">
         <v>428</v>
       </c>
@@ -7527,7 +7558,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A34" s="57" t="s">
         <v>459</v>
       </c>
@@ -7541,8 +7572,8 @@
         <v>584</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+    <row r="35" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A35" s="59"/>
       <c r="B35" s="19" t="s">
         <v>461</v>
       </c>
@@ -7553,7 +7584,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
         <v>502</v>
       </c>
@@ -7565,8 +7596,8 @@
       </c>
       <c r="D36" s="20"/>
     </row>
-    <row r="37" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+    <row r="37" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
       <c r="B37" s="19" t="s">
         <v>505</v>
       </c>
@@ -7575,8 +7606,8 @@
       </c>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+    <row r="38" spans="1:4" ht="126" x14ac:dyDescent="0.3">
+      <c r="A38" s="58"/>
       <c r="B38" s="19" t="s">
         <v>506</v>
       </c>
@@ -7585,8 +7616,8 @@
       </c>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+    <row r="39" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A39" s="58"/>
       <c r="B39" s="19" t="s">
         <v>509</v>
       </c>
@@ -7595,8 +7626,8 @@
       </c>
       <c r="D39" s="20"/>
     </row>
-    <row r="40" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+    <row r="40" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A40" s="58"/>
       <c r="B40" s="19" t="s">
         <v>511</v>
       </c>
@@ -7605,8 +7636,8 @@
       </c>
       <c r="D40" s="20"/>
     </row>
-    <row r="41" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+    <row r="41" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A41" s="59"/>
       <c r="B41" s="19" t="s">
         <v>513</v>
       </c>
@@ -7615,7 +7646,7 @@
       </c>
       <c r="D41" s="20"/>
     </row>
-    <row r="42" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A42" s="57" t="s">
         <v>372</v>
       </c>
@@ -7626,8 +7657,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="58"/>
       <c r="B43" s="18" t="s">
         <v>378</v>
       </c>
@@ -7635,8 +7666,8 @@
         <v>439</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+    <row r="44" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
       <c r="B44" s="18" t="s">
         <v>441</v>
       </c>
@@ -7644,8 +7675,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+    <row r="45" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A45" s="58"/>
       <c r="B45" s="19" t="s">
         <v>553</v>
       </c>
@@ -7653,8 +7684,8 @@
         <v>554</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+    <row r="46" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="58"/>
       <c r="B46" s="19" t="s">
         <v>555</v>
       </c>
@@ -7662,8 +7693,8 @@
         <v>556</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="85.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
+    <row r="47" spans="1:4" ht="86.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="58"/>
       <c r="B47" s="19" t="s">
         <v>557</v>
       </c>
@@ -7671,8 +7702,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+    <row r="48" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A48" s="59"/>
       <c r="B48" s="19" t="s">
         <v>559</v>
       </c>
@@ -7680,8 +7711,8 @@
         <v>560</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="58" t="s">
+    <row r="49" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="54" t="s">
         <v>464</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -7694,8 +7725,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
+    <row r="50" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A50" s="55"/>
       <c r="B50" s="18" t="s">
         <v>465</v>
       </c>
@@ -7703,8 +7734,8 @@
         <v>466</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
+    <row r="51" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A51" s="55"/>
       <c r="B51" s="18" t="s">
         <v>467</v>
       </c>
@@ -7712,8 +7743,8 @@
         <v>470</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
+    <row r="52" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A52" s="56"/>
       <c r="B52" s="18" t="s">
         <v>468</v>
       </c>
@@ -7721,8 +7752,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
+    <row r="53" spans="1:4" ht="112" x14ac:dyDescent="0.3">
+      <c r="A53" s="54" t="s">
         <v>474</v>
       </c>
       <c r="B53" s="18" t="s">
@@ -7732,8 +7763,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
+    <row r="54" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+      <c r="A54" s="55"/>
       <c r="B54" s="18" t="s">
         <v>477</v>
       </c>
@@ -7741,8 +7772,8 @@
         <v>575</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
+    <row r="55" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A55" s="55"/>
       <c r="B55" s="19" t="s">
         <v>478</v>
       </c>
@@ -7750,8 +7781,8 @@
         <v>479</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
+    <row r="56" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A56" s="56"/>
       <c r="B56" s="19" t="s">
         <v>480</v>
       </c>
@@ -7759,8 +7790,8 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="58" t="s">
+    <row r="57" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+      <c r="A57" s="54" t="s">
         <v>482</v>
       </c>
       <c r="B57" s="19" t="s">
@@ -7770,8 +7801,8 @@
         <v>484</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
+    <row r="58" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A58" s="56"/>
       <c r="B58" s="19" t="s">
         <v>485</v>
       </c>
@@ -7779,8 +7810,8 @@
         <v>486</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
+    <row r="59" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A59" s="54" t="s">
         <v>487</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -7790,8 +7821,8 @@
         <v>489</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
+    <row r="60" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A60" s="55"/>
       <c r="B60" s="19" t="s">
         <v>491</v>
       </c>
@@ -7799,8 +7830,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
+    <row r="61" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A61" s="55"/>
       <c r="B61" s="19" t="s">
         <v>492</v>
       </c>
@@ -7808,8 +7839,8 @@
         <v>493</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
+    <row r="62" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A62" s="55"/>
       <c r="B62" s="19" t="s">
         <v>494</v>
       </c>
@@ -7817,8 +7848,8 @@
         <v>495</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
+    <row r="63" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A63" s="55"/>
       <c r="B63" s="19" t="s">
         <v>496</v>
       </c>
@@ -7826,8 +7857,8 @@
         <v>497</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="93" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
+    <row r="64" spans="1:4" ht="90.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="56"/>
       <c r="B64" s="19" t="s">
         <v>498</v>
       </c>
@@ -7838,8 +7869,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="54" t="s">
+    <row r="65" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A65" s="63" t="s">
         <v>469</v>
       </c>
       <c r="B65" s="19" t="s">
@@ -7849,8 +7880,8 @@
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
+    <row r="66" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="A66" s="63"/>
       <c r="B66" s="18" t="s">
         <v>394</v>
       </c>
@@ -7858,8 +7889,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="63"/>
       <c r="B67" s="18" t="s">
         <v>401</v>
       </c>
@@ -7867,8 +7898,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
+    <row r="68" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A68" s="63"/>
       <c r="B68" s="19" t="s">
         <v>429</v>
       </c>
@@ -7876,8 +7907,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
+    <row r="69" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A69" s="63"/>
       <c r="B69" s="19" t="s">
         <v>431</v>
       </c>
@@ -7885,8 +7916,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
+    <row r="70" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A70" s="63"/>
       <c r="B70" s="19" t="s">
         <v>433</v>
       </c>
@@ -7894,8 +7925,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
+    <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A71" s="63"/>
       <c r="B71" s="18" t="s">
         <v>370</v>
       </c>
@@ -7903,8 +7934,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
+    <row r="72" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A72" s="63"/>
       <c r="B72" s="19" t="s">
         <v>435</v>
       </c>
@@ -7912,8 +7943,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
+    <row r="73" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A73" s="63"/>
       <c r="B73" s="19" t="s">
         <v>437</v>
       </c>
@@ -7923,11 +7954,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A49:A52"/>
     <mergeCell ref="A65:A73"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A31"/>
@@ -7937,6 +7963,11 @@
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A64"/>
     <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A1:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A49:A52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1" xr:uid="{1D36F27E-9EFF-45DA-9132-077AC29FA03B}"/>
@@ -7957,14 +7988,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -7972,7 +8003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -7980,7 +8011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -7988,7 +8019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -7996,7 +8027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -8004,7 +8035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -8012,7 +8043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -8020,7 +8051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -8028,7 +8059,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -8036,7 +8067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>359</v>
       </c>
@@ -8044,7 +8075,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>361</v>
       </c>
@@ -8052,7 +8083,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -8060,7 +8091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -8068,7 +8099,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -8076,7 +8107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
@@ -8084,13 +8115,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
@@ -8101,7 +8132,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -8112,7 +8143,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -8120,7 +8151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>103</v>
       </c>
@@ -8128,7 +8159,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>215</v>
       </c>
@@ -8136,7 +8167,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>136</v>
       </c>
@@ -8144,7 +8175,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>209</v>
       </c>
@@ -8152,7 +8183,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>210</v>
       </c>
@@ -8160,7 +8191,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>213</v>
       </c>
@@ -8168,7 +8199,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>344</v>
       </c>
@@ -8176,7 +8207,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>657</v>
       </c>
@@ -8197,15 +8228,15 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -8219,7 +8250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
         <v>137</v>
       </c>
@@ -8231,7 +8262,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="64"/>
       <c r="B3" s="1" t="s">
         <v>140</v>
@@ -8241,7 +8272,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="64"/>
       <c r="B4" s="1" t="s">
         <v>141</v>
@@ -8251,7 +8282,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="64"/>
       <c r="B5" s="1" t="s">
         <v>143</v>
@@ -8261,7 +8292,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="64"/>
       <c r="B6" s="1" t="s">
         <v>145</v>
@@ -8271,7 +8302,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="64"/>
       <c r="B7" s="1" t="s">
         <v>148</v>
@@ -8281,7 +8312,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="64" t="s">
         <v>149</v>
       </c>
@@ -8293,7 +8324,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="64"/>
       <c r="B9" s="1" t="s">
         <v>208</v>
@@ -8303,7 +8334,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="64"/>
       <c r="B10" s="1" t="s">
         <v>206</v>
@@ -8313,7 +8344,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="64"/>
       <c r="B11" s="1" t="s">
         <v>153</v>
@@ -8323,7 +8354,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="64"/>
       <c r="B12" s="1" t="s">
         <v>155</v>
@@ -8333,7 +8364,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="64"/>
       <c r="B13" s="1" t="s">
         <v>159</v>
@@ -8343,7 +8374,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="64"/>
       <c r="B14" s="1" t="s">
         <v>174</v>
@@ -8353,7 +8384,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="64"/>
       <c r="B15" s="1" t="s">
         <v>175</v>
@@ -8363,7 +8394,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="64"/>
       <c r="B16" s="1" t="s">
         <v>177</v>
@@ -8373,7 +8404,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="64"/>
       <c r="B17" s="1" t="s">
         <v>161</v>
@@ -8383,7 +8414,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="64"/>
       <c r="B18" s="1" t="s">
         <v>158</v>
@@ -8393,7 +8424,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="64"/>
       <c r="B19" s="1" t="s">
         <v>163</v>
@@ -8403,7 +8434,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="64"/>
       <c r="B20" s="1" t="s">
         <v>200</v>
@@ -8415,7 +8446,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>165</v>
       </c>
@@ -8427,7 +8458,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="64"/>
       <c r="B22" s="1" t="s">
         <v>736</v>
@@ -8437,7 +8468,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="64"/>
       <c r="B23" s="1" t="s">
         <v>735</v>
@@ -8447,7 +8478,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="64"/>
       <c r="B24" s="1" t="s">
         <v>169</v>
@@ -8457,7 +8488,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="64"/>
       <c r="B25" s="1" t="s">
         <v>171</v>
@@ -8467,7 +8498,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="64" t="s">
         <v>179</v>
       </c>
@@ -8479,7 +8510,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="64"/>
       <c r="B27" s="1" t="s">
         <v>113</v>
@@ -8489,7 +8520,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="64"/>
       <c r="B28" s="1" t="s">
         <v>182</v>
@@ -8499,7 +8530,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="64"/>
       <c r="B29" s="1" t="s">
         <v>184</v>
@@ -8509,7 +8540,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="64"/>
       <c r="B30" s="1" t="s">
         <v>294</v>
@@ -8519,7 +8550,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="64"/>
       <c r="B31" s="1" t="s">
         <v>186</v>
@@ -8531,7 +8562,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="64" t="s">
         <v>189</v>
       </c>
@@ -8543,7 +8574,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="64"/>
       <c r="B33" s="1" t="s">
         <v>113</v>
@@ -8553,7 +8584,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="64"/>
       <c r="B34" s="1" t="s">
         <v>191</v>
@@ -8563,7 +8594,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="64"/>
       <c r="B35" s="1" t="s">
         <v>194</v>
@@ -8573,7 +8604,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="64" t="s">
         <v>195</v>
       </c>
@@ -8585,7 +8616,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="64"/>
       <c r="B37" s="35" t="s">
         <v>733</v>
@@ -8595,7 +8626,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="64"/>
       <c r="B38" s="35" t="s">
         <v>734</v>
@@ -8605,7 +8636,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>203</v>
       </c>
@@ -8634,21 +8665,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CC45DC-D9F2-403E-820D-C6DA59FA15DC}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -8662,7 +8693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>222</v>
       </c>
@@ -8672,7 +8703,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>224</v>
       </c>
@@ -8684,7 +8715,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>225</v>
       </c>
@@ -8696,7 +8727,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>229</v>
       </c>
@@ -8710,7 +8741,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>233</v>
       </c>
@@ -8722,7 +8753,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>235</v>
       </c>
@@ -8736,7 +8767,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>239</v>
       </c>
@@ -8746,7 +8777,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>241</v>
       </c>
@@ -8756,7 +8787,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>243</v>
       </c>
@@ -8769,6 +8800,16 @@
       <c r="D10" s="2" t="s">
         <v>246</v>
       </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="85" t="s">
+        <v>777</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>778</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8783,15 +8824,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="201" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="201" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="65"/>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -8799,7 +8840,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -8813,7 +8854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -8823,7 +8864,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -8833,7 +8874,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -8843,7 +8884,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -8853,7 +8894,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -8863,7 +8904,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -8877,7 +8918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="64" t="s">
         <v>13</v>
       </c>
@@ -8889,7 +8930,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="64"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -8899,7 +8940,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="64"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -8933,20 +8974,20 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="231.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="231.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66"/>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
     </row>
-    <row r="2" spans="1:4" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="76" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="39" t="s">
         <v>604</v>
@@ -8956,7 +8997,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="40" t="s">
         <v>607</v>
@@ -8966,7 +9007,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="76" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="40" t="s">
         <v>608</v>
@@ -8976,7 +9017,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="40" t="s">
         <v>610</v>
@@ -8986,7 +9027,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="40" t="s">
         <v>349</v>
@@ -8996,7 +9037,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="40" t="s">
         <v>613</v>
@@ -9006,7 +9047,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="40" t="s">
         <v>616</v>
@@ -9016,7 +9057,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="76" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="40" t="s">
         <v>617</v>
@@ -9026,7 +9067,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="40" t="s">
         <v>619</v>
@@ -9036,7 +9077,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="40" t="s">
         <v>129</v>
@@ -9046,7 +9087,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="40" t="s">
         <v>622</v>
@@ -9056,7 +9097,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="126" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="46" t="s">
         <v>624</v>
@@ -9066,7 +9107,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -9080,7 +9121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="70" t="s">
         <v>56</v>
       </c>
@@ -9094,7 +9135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="71"/>
       <c r="B16" s="1" t="s">
         <v>54</v>
@@ -9106,7 +9147,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="72"/>
       <c r="B17" s="1" t="s">
         <v>85</v>
@@ -9116,7 +9157,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="70" t="s">
         <v>44</v>
       </c>
@@ -9128,7 +9169,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="71"/>
       <c r="B19" s="1" t="s">
         <v>47</v>
@@ -9138,7 +9179,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="71"/>
       <c r="B20" s="1" t="s">
         <v>49</v>
@@ -9148,7 +9189,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="71"/>
       <c r="B21" s="1" t="s">
         <v>70</v>
@@ -9158,7 +9199,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="71"/>
       <c r="B22" s="1" t="s">
         <v>50</v>
@@ -9168,7 +9209,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="71"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
@@ -9178,7 +9219,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="71"/>
       <c r="B24" s="1" t="s">
         <v>51</v>
@@ -9188,7 +9229,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="71"/>
       <c r="B25" s="1" t="s">
         <v>109</v>
@@ -9198,7 +9239,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="72"/>
       <c r="B26" s="1" t="s">
         <v>54</v>
@@ -9208,7 +9249,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="70" t="s">
         <v>68</v>
       </c>
@@ -9222,7 +9263,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="71"/>
       <c r="B28" s="1" t="s">
         <v>66</v>
@@ -9232,7 +9273,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="71"/>
       <c r="B29" s="1" t="s">
         <v>105</v>
@@ -9242,7 +9283,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="71"/>
       <c r="B30" s="1" t="s">
         <v>107</v>
@@ -9252,7 +9293,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="71"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
@@ -9262,7 +9303,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="71"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -9272,7 +9313,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="71"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -9280,7 +9321,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="72"/>
       <c r="B34" s="34" t="s">
         <v>683</v>
@@ -9290,7 +9331,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="70" t="s">
         <v>87</v>
       </c>
@@ -9304,7 +9345,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="71"/>
       <c r="B36" s="1" t="s">
         <v>95</v>
@@ -9314,7 +9355,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="71"/>
       <c r="B37" s="1" t="s">
         <v>90</v>
@@ -9324,7 +9365,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="72"/>
       <c r="B38" s="1" t="s">
         <v>92</v>
@@ -9334,7 +9375,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="70" t="s">
         <v>99</v>
       </c>
@@ -9348,7 +9389,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="71"/>
       <c r="B40" s="1" t="s">
         <v>101</v>
@@ -9358,7 +9399,7 @@
       </c>
       <c r="D40" s="68"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="71"/>
       <c r="B41" s="1" t="s">
         <v>111</v>
@@ -9368,7 +9409,7 @@
       </c>
       <c r="D41" s="68"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="72"/>
       <c r="B42" s="1" t="s">
         <v>113</v>
@@ -9378,7 +9419,7 @@
       </c>
       <c r="D42" s="69"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="73" t="s">
         <v>115</v>
       </c>
@@ -9390,7 +9431,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="74"/>
       <c r="B44" s="1" t="s">
         <v>109</v>
@@ -9400,7 +9441,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="74"/>
       <c r="B45" s="1" t="s">
         <v>117</v>
@@ -9412,7 +9453,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="74"/>
       <c r="B46" s="1" t="s">
         <v>120</v>
@@ -9424,7 +9465,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="74"/>
       <c r="B47" s="1" t="s">
         <v>124</v>
@@ -9434,7 +9475,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="74"/>
       <c r="B48" s="6" t="s">
         <v>85</v>
@@ -9444,7 +9485,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="64" t="s">
         <v>129</v>
       </c>
@@ -9456,7 +9497,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="64"/>
       <c r="B50" s="1" t="s">
         <v>131</v>
@@ -9466,7 +9507,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="64"/>
       <c r="B51" s="1" t="s">
         <v>133</v>
@@ -9476,7 +9517,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>354</v>
       </c>
@@ -9488,7 +9529,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
@@ -9496,7 +9537,7 @@
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>357</v>
       </c>
@@ -9506,7 +9547,7 @@
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="406" x14ac:dyDescent="0.35">
       <c r="A55" s="64" t="s">
         <v>126</v>
       </c>
@@ -9518,7 +9559,7 @@
       </c>
       <c r="D55" s="15"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="64"/>
       <c r="B56" s="1" t="s">
         <v>49</v>
@@ -9530,7 +9571,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="64"/>
       <c r="B57" s="1" t="s">
         <v>20</v>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Learnings\AWS-DevOps-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9FF3C4-A267-4B2A-A5BC-5AAB9AE62760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833DF01F-AEE8-49F1-A1B4-1FA07D8251C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="781">
   <si>
     <t>Copy SSH file to other system</t>
   </si>
@@ -4500,12 +4500,24 @@
   <si>
     <t>Manage Jenkins--&gt; Manage Credentials</t>
   </si>
+  <si>
+    <t>Types of Jenkins Credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenkins can store the following types of credentials: 
+•	Secret text - a token such as an API token (e.g. a GitHub personal access token),
+•	Username and password - which could be handled as separate components or as a colon separated string in the format username:password (read more about this in Handling credentials),
+•	Secret file - which is essentially secret content in a file,
+•	SSH Username with private key - an SSH public/private key pair,
+•	Certificate - a PKCS#12 certificate file and optional password, or
+•	Docker Host Certificate Authentication credentials. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4620,13 +4632,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4923,6 +4928,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4930,15 +4950,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4949,9 +4960,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4987,6 +4995,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4998,26 +5015,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5677,7 +5682,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>249</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5691,7 +5696,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="1" t="s">
         <v>253</v>
       </c>
@@ -5715,7 +5720,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>268</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5729,7 +5734,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="1" t="s">
         <v>265</v>
       </c>
@@ -5741,7 +5746,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="1" t="s">
         <v>266</v>
       </c>
@@ -5753,7 +5758,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>269</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5762,62 +5767,62 @@
       <c r="C10" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="79" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="76"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="64"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="76"/>
+      <c r="D12" s="80"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="64"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="76"/>
+      <c r="D13" s="80"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D14" s="76"/>
+      <c r="D14" s="80"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="77"/>
+      <c r="D15" s="81"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="65" t="s">
         <v>280</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -5829,7 +5834,7 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="1" t="s">
         <v>113</v>
       </c>
@@ -5839,7 +5844,7 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="74" t="s">
         <v>283</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -5848,32 +5853,32 @@
       <c r="C18" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="76" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="74"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D19" s="81"/>
+      <c r="D19" s="83"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="74"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="6" t="s">
         <v>272</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D20" s="82"/>
+      <c r="D20" s="77"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="65" t="s">
         <v>287</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -5885,8 +5890,8 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="64"/>
-      <c r="B22" s="79" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="78" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5895,15 +5900,15 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="64"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="64"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="1" t="s">
         <v>272</v>
       </c>
@@ -5913,7 +5918,7 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="65" t="s">
         <v>292</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -5922,122 +5927,122 @@
       <c r="C25" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="82" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="64"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D26" s="79"/>
+      <c r="D26" s="78"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="64"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="1" t="s">
         <v>338</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D27" s="79"/>
+      <c r="D27" s="78"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="64"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D28" s="79"/>
+      <c r="D28" s="78"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="64"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D29" s="79"/>
+      <c r="D29" s="78"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="64"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D30" s="79"/>
+      <c r="D30" s="78"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="64"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D31" s="79"/>
+      <c r="D31" s="78"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="64"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D32" s="79"/>
+      <c r="D32" s="78"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="64"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="79"/>
+      <c r="D33" s="78"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="64"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D34" s="79"/>
+      <c r="D34" s="78"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="64"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="6" t="s">
         <v>330</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D35" s="80"/>
+      <c r="D35" s="76"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="64"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="80"/>
+      <c r="D36" s="76"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="74" t="s">
         <v>318</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -6049,7 +6054,7 @@
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="74"/>
+      <c r="A38" s="75"/>
       <c r="B38" s="1" t="s">
         <v>320</v>
       </c>
@@ -6059,7 +6064,7 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="74"/>
+      <c r="A39" s="75"/>
       <c r="B39" s="1" t="s">
         <v>322</v>
       </c>
@@ -6069,7 +6074,7 @@
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="74"/>
+      <c r="A40" s="75"/>
       <c r="B40" s="6" t="s">
         <v>324</v>
       </c>
@@ -6079,7 +6084,7 @@
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="71" t="s">
         <v>316</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -6088,22 +6093,22 @@
       <c r="C41" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D41" s="80" t="s">
+      <c r="D41" s="76" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D42" s="82"/>
+      <c r="D42" s="77"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="71" t="s">
         <v>449</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -6115,7 +6120,7 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="71"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="1" t="s">
         <v>300</v>
       </c>
@@ -6127,7 +6132,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="71"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="1" t="s">
         <v>450</v>
       </c>
@@ -6137,7 +6142,7 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="72"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="1" t="s">
         <v>302</v>
       </c>
@@ -6148,12 +6153,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A21:A24"/>
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="A25:A36"/>
     <mergeCell ref="D25:D36"/>
@@ -6163,6 +6162,12 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6171,10 +6176,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91303D4C-06CC-4BBF-90FE-4B6BD693B6E0}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6356,753 +6361,764 @@
       <c r="A19" s="18" t="s">
         <v>775</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="54" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="83"/>
-      <c r="B20" s="17"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="B21" s="17"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B23" s="18" t="s">
         <v>718</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C23" s="22" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="56.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+    <row r="24" spans="1:3" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B25" s="51" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+    <row r="26" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B26" s="19" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+    <row r="27" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B27" s="19" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B28" s="18" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="98.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+    <row r="29" spans="1:3" ht="98.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B29" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C29" s="37" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+    <row r="30" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B30" s="38" t="s">
         <v>603</v>
       </c>
-      <c r="C29" s="36"/>
-    </row>
-    <row r="30" spans="1:3" ht="84.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
+      <c r="C30" s="36"/>
+    </row>
+    <row r="31" spans="1:3" ht="84.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B31" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="C30" s="36"/>
-    </row>
-    <row r="31" spans="1:3" ht="56.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="C31" s="36"/>
+    </row>
+    <row r="32" spans="1:3" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B32" s="19" t="s">
         <v>746</v>
       </c>
-      <c r="C31" s="36"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
+      <c r="C32" s="36"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="32" t="s">
         <v>645</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B33" s="32" t="s">
         <v>642</v>
       </c>
-      <c r="C32" s="36"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="C33" s="36"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
         <v>626</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B34" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C34" s="22" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+    <row r="35" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B35" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+      <c r="C35" s="20"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B36" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="C35" s="36"/>
-    </row>
-    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
+      <c r="C36" s="36"/>
+    </row>
+    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B37" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="C36" s="36"/>
-    </row>
-    <row r="37" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="C37" s="36"/>
+    </row>
+    <row r="38" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B38" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="C37" s="36"/>
-    </row>
-    <row r="38" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
+      <c r="C38" s="36"/>
+    </row>
+    <row r="39" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B39" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="C38" s="36"/>
-    </row>
-    <row r="39" spans="1:3" ht="336" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="41" t="s">
+      <c r="C39" s="36"/>
+    </row>
+    <row r="40" spans="1:3" ht="336" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="41" t="s">
         <v>640</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B40" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C40" s="42" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+    <row r="41" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B41" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="C40" s="42"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
+      <c r="C41" s="42"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="B42" s="17"/>
-    </row>
-    <row r="43" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B44" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C44" s="22" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="18" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B45" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C45" s="43" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="18" t="s">
+    <row r="46" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B46" s="19" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="18" t="s">
+    <row r="47" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="18" t="s">
         <v>685</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B47" s="19" t="s">
         <v>686</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C47" s="28" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+    <row r="48" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="18" t="s">
         <v>661</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B48" s="19" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
+    <row r="49" spans="1:3" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B49" s="19" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+    <row r="50" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B50" s="19" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
         <v>663</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B51" s="19" t="s">
         <v>690</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C51" s="52" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="18" t="s">
         <v>719</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B52" s="19" t="s">
         <v>725</v>
       </c>
-      <c r="C51" s="52"/>
-    </row>
-    <row r="52" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
+      <c r="C52" s="52"/>
+    </row>
+    <row r="53" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="18" t="s">
         <v>720</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B53" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C53" s="28" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
-        <v>721</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="52"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
-        <v>722</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>754</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="B54" s="19"/>
       <c r="C54" s="52"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="C55" s="52"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B56" s="19" t="s">
         <v>755</v>
       </c>
-      <c r="C55" s="52"/>
-    </row>
-    <row r="56" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="18" t="s">
+      <c r="C56" s="52"/>
+    </row>
+    <row r="57" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B57" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="C56" s="52"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
+      <c r="C57" s="52"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="B58" s="17"/>
-    </row>
-    <row r="59" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="18" t="s">
+      <c r="B59" s="17"/>
+    </row>
+    <row r="60" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B60" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C60" s="22" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="56.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="18" t="s">
+    <row r="61" spans="1:3" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B61" s="19" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="18" t="s">
+    <row r="62" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B62" s="19" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="18" t="s">
+    <row r="63" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B63" s="19" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="18" t="s">
+    <row r="64" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B64" s="19" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="18" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B65" s="18" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="18" t="s">
+    <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B66" s="19" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="32" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="32" t="s">
         <v>578</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="29" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="29" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
+    <row r="68" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B68" s="19" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="18" t="s">
+    <row r="69" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="18" t="s">
         <v>650</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B69" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C69" s="29" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="70.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="18" t="s">
+    <row r="70" spans="1:4" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B70" s="19" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="56.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="32" t="s">
+    <row r="71" spans="1:4" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="32" t="s">
         <v>655</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B71" s="33" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="18" t="s">
+    <row r="72" spans="1:4" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B72" s="19" t="s">
         <v>738</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C72" s="20" t="s">
         <v>749</v>
       </c>
-      <c r="D71" s="53" t="s">
+      <c r="D72" s="53" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="18" t="s">
+    <row r="73" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B73" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C73" s="28" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="18" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B74" s="18" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="18" t="s">
+    <row r="75" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="18" t="s">
         <v>694</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B75" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C75" s="28" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="32" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="32" t="s">
         <v>695</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B76" s="32" t="s">
         <v>703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="18" t="s">
-        <v>696</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="18" t="s">
         <v>698</v>
       </c>
-      <c r="B77" s="18"/>
-    </row>
-    <row r="78" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="18" t="s">
+      <c r="B78" s="18"/>
+    </row>
+    <row r="79" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="18" t="s">
         <v>699</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B79" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C79" s="52" t="s">
         <v>711</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="18" t="s">
-        <v>700</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
+        <v>700</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="18" t="s">
         <v>701</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B81" s="18" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="18" t="s">
+    <row r="82" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="18" t="s">
         <v>704</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B82" s="19" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="18" t="s">
+    <row r="83" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B83" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C83" s="28" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="17"/>
-      <c r="B83" s="25"/>
-    </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="44" t="s">
+      <c r="A84" s="17"/>
+      <c r="B84" s="25"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="B84" s="19"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="18" t="s">
-        <v>581</v>
-      </c>
       <c r="B85" s="19"/>
-      <c r="C85" s="30" t="s">
-        <v>579</v>
-      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="30" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="B86" s="19"/>
-    </row>
-    <row r="87" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="47" t="s">
+      <c r="B87" s="19"/>
+    </row>
+    <row r="88" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="47" t="s">
         <v>630</v>
       </c>
-      <c r="B87" s="48" t="s">
+      <c r="B88" s="48" t="s">
         <v>631</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C88" s="16" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B88" s="25"/>
-    </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="31" t="s">
+      <c r="B89" s="25"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="30" t="s">
+      <c r="B90" s="19"/>
+      <c r="C90" s="30" t="s">
         <v>586</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B92" s="19" t="s">
         <v>751</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="18" t="s">
-        <v>589</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B94" s="19" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="18" t="s">
-        <v>594</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B96" s="19" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="18" t="s">
+    <row r="97" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B97" s="19" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="18" t="s">
+    <row r="98" spans="1:3" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B98" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C98" s="30" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="49" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="49" t="s">
         <v>726</v>
       </c>
-      <c r="B99" s="19"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="19"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B101" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B102" s="19" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="34" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="34" t="s">
         <v>731</v>
       </c>
-      <c r="B102" s="33" t="s">
+      <c r="B103" s="33" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B104" s="19" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="34" t="s">
+    <row r="105" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="34" t="s">
         <v>742</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B105" s="35" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C106" s="28" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A106" s="34" t="s">
+    <row r="107" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+      <c r="A107" s="34" t="s">
         <v>770</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>771</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{33EE5E25-20E1-4F45-B9AC-6DF03D2A683A}"/>
-    <hyperlink ref="B24" r:id="rId2" xr:uid="{259EEAC1-0FFB-4513-9333-16E961318BBE}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{DBC8026C-06DD-4FD5-866E-81E7B86EF214}"/>
-    <hyperlink ref="B15" r:id="rId4" xr:uid="{D5FCC31A-89FA-44E4-BFCD-335C109263D8}"/>
-    <hyperlink ref="C46" r:id="rId5" xr:uid="{800DC5E4-5E3B-43E6-BB8A-B7977900D33A}"/>
-    <hyperlink ref="C50" r:id="rId6" xr:uid="{5A5F45EE-6FF2-412B-9487-C58F0FB7E499}"/>
-    <hyperlink ref="C72" r:id="rId7" xr:uid="{888E343E-B0FD-4F26-931A-DC2CFA993149}"/>
-    <hyperlink ref="C78" r:id="rId8" xr:uid="{D90D705C-5AD5-42F4-AB45-0DE4364FE36A}"/>
-    <hyperlink ref="C74" r:id="rId9" location=":~:text=NodePort%20Services%20are%20often%20used,your%20application%20to%20external%20clients." xr:uid="{2C0495B4-89A1-4498-A137-6120838439C6}"/>
-    <hyperlink ref="C82" r:id="rId10" xr:uid="{FE2D400A-3A60-4401-93F5-6E56855F9A18}"/>
-    <hyperlink ref="C105" r:id="rId11" xr:uid="{67EC7FDC-8439-4295-9212-D37FDEC6B4D4}"/>
-    <hyperlink ref="C52" r:id="rId12" location=":~:text=With%20multi%2Dstage%20builds%2C%20you,want%20in%20the%20final%20image." xr:uid="{E0385F0E-4548-4B51-BB81-8EA2B616339B}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{DBC8026C-06DD-4FD5-866E-81E7B86EF214}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{D5FCC31A-89FA-44E4-BFCD-335C109263D8}"/>
+    <hyperlink ref="C47" r:id="rId4" xr:uid="{800DC5E4-5E3B-43E6-BB8A-B7977900D33A}"/>
+    <hyperlink ref="C51" r:id="rId5" xr:uid="{5A5F45EE-6FF2-412B-9487-C58F0FB7E499}"/>
+    <hyperlink ref="C73" r:id="rId6" xr:uid="{888E343E-B0FD-4F26-931A-DC2CFA993149}"/>
+    <hyperlink ref="C79" r:id="rId7" xr:uid="{D90D705C-5AD5-42F4-AB45-0DE4364FE36A}"/>
+    <hyperlink ref="C75" r:id="rId8" location=":~:text=NodePort%20Services%20are%20often%20used,your%20application%20to%20external%20clients." xr:uid="{2C0495B4-89A1-4498-A137-6120838439C6}"/>
+    <hyperlink ref="C83" r:id="rId9" xr:uid="{FE2D400A-3A60-4401-93F5-6E56855F9A18}"/>
+    <hyperlink ref="C106" r:id="rId10" xr:uid="{67EC7FDC-8439-4295-9212-D37FDEC6B4D4}"/>
+    <hyperlink ref="C53" r:id="rId11" location=":~:text=With%20multi%2Dstage%20builds%2C%20you,want%20in%20the%20final%20image." xr:uid="{E0385F0E-4548-4B51-BB81-8EA2B616339B}"/>
+    <hyperlink ref="B25" r:id="rId12" xr:uid="{259EEAC1-0FFB-4513-9333-16E961318BBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -7252,7 +7268,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="59" t="s">
         <v>514</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -7263,7 +7279,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="24" t="s">
         <v>517</v>
       </c>
@@ -7272,7 +7288,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="24" t="s">
         <v>519</v>
       </c>
@@ -7281,7 +7297,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="24" t="s">
         <v>521</v>
       </c>
@@ -7290,7 +7306,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="112" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="24" t="s">
         <v>523</v>
       </c>
@@ -7299,7 +7315,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.35">
-      <c r="A6" s="55"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="24" t="s">
         <v>570</v>
       </c>
@@ -7308,7 +7324,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="98" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="24" t="s">
         <v>526</v>
       </c>
@@ -7317,7 +7333,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="24" t="s">
         <v>528</v>
       </c>
@@ -7326,7 +7342,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="115" x14ac:dyDescent="0.35">
-      <c r="A9" s="55"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="24" t="s">
         <v>530</v>
       </c>
@@ -7335,7 +7351,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="98" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="19" t="s">
         <v>483</v>
       </c>
@@ -7344,7 +7360,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="24" t="s">
         <v>532</v>
       </c>
@@ -7354,7 +7370,7 @@
       <c r="D11"/>
     </row>
     <row r="12" spans="1:4" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="24" t="s">
         <v>534</v>
       </c>
@@ -7363,7 +7379,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="24" t="s">
         <v>536</v>
       </c>
@@ -7372,7 +7388,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="112" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="24" t="s">
         <v>538</v>
       </c>
@@ -7381,7 +7397,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="24" t="s">
         <v>539</v>
       </c>
@@ -7390,14 +7406,14 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="130.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="55"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="24" t="s">
         <v>541</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="98" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="24" t="s">
         <v>542</v>
       </c>
@@ -7406,7 +7422,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="24" t="s">
         <v>544</v>
       </c>
@@ -7415,7 +7431,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="24" t="s">
         <v>546</v>
       </c>
@@ -7424,7 +7440,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="91.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="59" t="s">
         <v>549</v>
       </c>
       <c r="B20" s="24" t="s">
@@ -7433,7 +7449,7 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="24" t="s">
         <v>550</v>
       </c>
@@ -7442,14 +7458,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="223.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="56"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="24" t="s">
         <v>552</v>
       </c>
       <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="84" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="62" t="s">
         <v>561</v>
       </c>
       <c r="B23" s="24" t="s">
@@ -7460,7 +7476,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="61"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="24" t="s">
         <v>564</v>
       </c>
@@ -7469,7 +7485,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="112" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="24" t="s">
         <v>566</v>
       </c>
@@ -7478,7 +7494,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A26" s="62"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="1" t="s">
         <v>568</v>
       </c>
@@ -7487,7 +7503,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="56" t="s">
         <v>454</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -7498,7 +7514,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="18" t="s">
         <v>385</v>
       </c>
@@ -7507,7 +7523,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="126" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="18" t="s">
         <v>446</v>
       </c>
@@ -7519,7 +7535,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="58" t="s">
         <v>455</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -7530,7 +7546,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="18" t="s">
         <v>426</v>
       </c>
@@ -7539,7 +7555,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="58" t="s">
         <v>456</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -7550,7 +7566,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="112" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="19" t="s">
         <v>428</v>
       </c>
@@ -7559,7 +7575,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="58" t="s">
         <v>459</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -7573,7 +7589,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="19" t="s">
         <v>461</v>
       </c>
@@ -7585,7 +7601,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="58" t="s">
         <v>502</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -7597,7 +7613,7 @@
       <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="19" t="s">
         <v>505</v>
       </c>
@@ -7607,7 +7623,7 @@
       <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4" ht="126" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="19" t="s">
         <v>506</v>
       </c>
@@ -7617,7 +7633,7 @@
       <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="19" t="s">
         <v>509</v>
       </c>
@@ -7627,7 +7643,7 @@
       <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="19" t="s">
         <v>511</v>
       </c>
@@ -7637,7 +7653,7 @@
       <c r="D40" s="20"/>
     </row>
     <row r="41" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="19" t="s">
         <v>513</v>
       </c>
@@ -7647,7 +7663,7 @@
       <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="58" t="s">
         <v>372</v>
       </c>
       <c r="B42" s="18" t="s">
@@ -7658,7 +7674,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="18" t="s">
         <v>378</v>
       </c>
@@ -7667,7 +7683,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="18" t="s">
         <v>441</v>
       </c>
@@ -7676,7 +7692,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="19" t="s">
         <v>553</v>
       </c>
@@ -7685,7 +7701,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="19" t="s">
         <v>555</v>
       </c>
@@ -7694,7 +7710,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="86.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="58"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="19" t="s">
         <v>557</v>
       </c>
@@ -7703,7 +7719,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="19" t="s">
         <v>559</v>
       </c>
@@ -7712,7 +7728,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="59" t="s">
         <v>464</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -7726,7 +7742,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="18" t="s">
         <v>465</v>
       </c>
@@ -7735,7 +7751,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="18" t="s">
         <v>467</v>
       </c>
@@ -7744,7 +7760,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A52" s="56"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="18" t="s">
         <v>468</v>
       </c>
@@ -7753,7 +7769,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="112" x14ac:dyDescent="0.3">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="59" t="s">
         <v>474</v>
       </c>
       <c r="B53" s="18" t="s">
@@ -7764,7 +7780,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="98" x14ac:dyDescent="0.3">
-      <c r="A54" s="55"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="18" t="s">
         <v>477</v>
       </c>
@@ -7773,7 +7789,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A55" s="55"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="19" t="s">
         <v>478</v>
       </c>
@@ -7782,7 +7798,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A56" s="56"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="19" t="s">
         <v>480</v>
       </c>
@@ -7791,7 +7807,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="98" x14ac:dyDescent="0.3">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="59" t="s">
         <v>482</v>
       </c>
       <c r="B57" s="19" t="s">
@@ -7802,7 +7818,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A58" s="56"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="19" t="s">
         <v>485</v>
       </c>
@@ -7811,7 +7827,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="59" t="s">
         <v>487</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -7822,7 +7838,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A60" s="55"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="19" t="s">
         <v>491</v>
       </c>
@@ -7831,7 +7847,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A61" s="55"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="19" t="s">
         <v>492</v>
       </c>
@@ -7840,7 +7856,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A62" s="55"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="19" t="s">
         <v>494</v>
       </c>
@@ -7849,7 +7865,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A63" s="55"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="19" t="s">
         <v>496</v>
       </c>
@@ -7858,7 +7874,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="90.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="56"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="19" t="s">
         <v>498</v>
       </c>
@@ -7870,7 +7886,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="55" t="s">
         <v>469</v>
       </c>
       <c r="B65" s="19" t="s">
@@ -7881,7 +7897,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A66" s="63"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="18" t="s">
         <v>394</v>
       </c>
@@ -7890,7 +7906,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="63"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="18" t="s">
         <v>401</v>
       </c>
@@ -7899,7 +7915,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A68" s="63"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="19" t="s">
         <v>429</v>
       </c>
@@ -7908,7 +7924,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A69" s="63"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="19" t="s">
         <v>431</v>
       </c>
@@ -7917,7 +7933,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A70" s="63"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="19" t="s">
         <v>433</v>
       </c>
@@ -7926,7 +7942,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="63"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="18" t="s">
         <v>370</v>
       </c>
@@ -7935,7 +7951,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A72" s="63"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="19" t="s">
         <v>435</v>
       </c>
@@ -7944,7 +7960,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A73" s="63"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="19" t="s">
         <v>437</v>
       </c>
@@ -7954,6 +7970,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A49:A52"/>
     <mergeCell ref="A65:A73"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A31"/>
@@ -7963,11 +7984,6 @@
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A64"/>
     <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A1:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A49:A52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1" xr:uid="{1D36F27E-9EFF-45DA-9132-077AC29FA03B}"/>
@@ -8251,7 +8267,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8263,7 +8279,7 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="64"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
@@ -8273,7 +8289,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="64"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
@@ -8283,7 +8299,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="1" t="s">
         <v>143</v>
       </c>
@@ -8293,7 +8309,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
@@ -8303,7 +8319,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="1" t="s">
         <v>148</v>
       </c>
@@ -8313,7 +8329,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -8325,7 +8341,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="64"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="1" t="s">
         <v>208</v>
       </c>
@@ -8335,7 +8351,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="64"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="1" t="s">
         <v>206</v>
       </c>
@@ -8345,7 +8361,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="1" t="s">
         <v>153</v>
       </c>
@@ -8355,7 +8371,7 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="64"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="1" t="s">
         <v>155</v>
       </c>
@@ -8365,7 +8381,7 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="64"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="1" t="s">
         <v>159</v>
       </c>
@@ -8375,7 +8391,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="1" t="s">
         <v>174</v>
       </c>
@@ -8385,7 +8401,7 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="1" t="s">
         <v>175</v>
       </c>
@@ -8395,7 +8411,7 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="64"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="1" t="s">
         <v>177</v>
       </c>
@@ -8405,7 +8421,7 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="1" t="s">
         <v>161</v>
       </c>
@@ -8415,7 +8431,7 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="64"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="1" t="s">
         <v>158</v>
       </c>
@@ -8425,7 +8441,7 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="64"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="1" t="s">
         <v>163</v>
       </c>
@@ -8435,7 +8451,7 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="64"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="1" t="s">
         <v>200</v>
       </c>
@@ -8447,7 +8463,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="65" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -8459,7 +8475,7 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="64"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="1" t="s">
         <v>736</v>
       </c>
@@ -8469,7 +8485,7 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="64"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="1" t="s">
         <v>735</v>
       </c>
@@ -8479,7 +8495,7 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="64"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="1" t="s">
         <v>169</v>
       </c>
@@ -8489,7 +8505,7 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="64"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="1" t="s">
         <v>171</v>
       </c>
@@ -8499,7 +8515,7 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="65" t="s">
         <v>179</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -8511,7 +8527,7 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="64"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="1" t="s">
         <v>113</v>
       </c>
@@ -8521,7 +8537,7 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="64"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="1" t="s">
         <v>182</v>
       </c>
@@ -8531,7 +8547,7 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="64"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="1" t="s">
         <v>184</v>
       </c>
@@ -8541,7 +8557,7 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="64"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="1" t="s">
         <v>294</v>
       </c>
@@ -8551,7 +8567,7 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="64"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="1" t="s">
         <v>186</v>
       </c>
@@ -8563,7 +8579,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="65" t="s">
         <v>189</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -8575,7 +8591,7 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="64"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="1" t="s">
         <v>113</v>
       </c>
@@ -8585,7 +8601,7 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="64"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="1" t="s">
         <v>191</v>
       </c>
@@ -8595,7 +8611,7 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="64"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="1" t="s">
         <v>194</v>
       </c>
@@ -8605,7 +8621,7 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="65" t="s">
         <v>195</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -8617,7 +8633,7 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="64"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="35" t="s">
         <v>733</v>
       </c>
@@ -8627,7 +8643,7 @@
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="64"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="35" t="s">
         <v>734</v>
       </c>
@@ -8667,7 +8683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CC45DC-D9F2-403E-820D-C6DA59FA15DC}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
@@ -8802,10 +8818,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="2" t="s">
         <v>778</v>
       </c>
       <c r="C11" s="1"/>
@@ -8833,9 +8849,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="201" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="28" t="s">
         <v>577</v>
       </c>
@@ -8919,7 +8935,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8931,7 +8947,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="64"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -8941,7 +8957,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -8983,9 +8999,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="231.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:4" ht="76" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
@@ -9122,7 +9138,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="71" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -9136,7 +9152,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
@@ -9148,7 +9164,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="1" t="s">
         <v>85</v>
       </c>
@@ -9158,7 +9174,7 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="71" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -9170,7 +9186,7 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="71"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
@@ -9180,7 +9196,7 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="71"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
@@ -9190,7 +9206,7 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="71"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
@@ -9200,7 +9216,7 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="71"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -9210,7 +9226,7 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="71"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -9220,7 +9236,7 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="71"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
@@ -9230,7 +9246,7 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
@@ -9240,7 +9256,7 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
@@ -9250,7 +9266,7 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="71" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -9264,7 +9280,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="71"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="1" t="s">
         <v>66</v>
       </c>
@@ -9274,7 +9290,7 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="71"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="1" t="s">
         <v>105</v>
       </c>
@@ -9284,7 +9300,7 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="71"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="1" t="s">
         <v>107</v>
       </c>
@@ -9294,7 +9310,7 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="71"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
@@ -9304,7 +9320,7 @@
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
@@ -9314,7 +9330,7 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="71"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>78</v>
@@ -9322,7 +9338,7 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="34" t="s">
         <v>683</v>
       </c>
@@ -9332,7 +9348,7 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="71" t="s">
         <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -9346,7 +9362,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="71"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="1" t="s">
         <v>95</v>
       </c>
@@ -9356,7 +9372,7 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="71"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="1" t="s">
         <v>90</v>
       </c>
@@ -9366,7 +9382,7 @@
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="1" t="s">
         <v>92</v>
       </c>
@@ -9376,7 +9392,7 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="71" t="s">
         <v>99</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -9385,42 +9401,42 @@
       <c r="C39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="68" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="71"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="68"/>
+      <c r="D40" s="69"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="71"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="68"/>
+      <c r="D41" s="69"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="69"/>
+      <c r="D42" s="70"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="74" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -9432,7 +9448,7 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="74"/>
+      <c r="A44" s="75"/>
       <c r="B44" s="1" t="s">
         <v>109</v>
       </c>
@@ -9442,7 +9458,7 @@
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="74"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="1" t="s">
         <v>117</v>
       </c>
@@ -9454,7 +9470,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="74"/>
+      <c r="A46" s="75"/>
       <c r="B46" s="1" t="s">
         <v>120</v>
       </c>
@@ -9466,7 +9482,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="74"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="1" t="s">
         <v>124</v>
       </c>
@@ -9476,7 +9492,7 @@
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="74"/>
+      <c r="A48" s="75"/>
       <c r="B48" s="6" t="s">
         <v>85</v>
       </c>
@@ -9486,7 +9502,7 @@
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="65" t="s">
         <v>129</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -9498,7 +9514,7 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="64"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="1" t="s">
         <v>131</v>
       </c>
@@ -9508,7 +9524,7 @@
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="64"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="1" t="s">
         <v>133</v>
       </c>
@@ -9548,7 +9564,7 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="406" x14ac:dyDescent="0.35">
-      <c r="A55" s="64" t="s">
+      <c r="A55" s="65" t="s">
         <v>126</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -9560,7 +9576,7 @@
       <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="64"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="1" t="s">
         <v>49</v>
       </c>
@@ -9572,7 +9588,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="64"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="1" t="s">
         <v>20</v>
       </c>
